--- a/office/excel/exercises/descriptive-statistics/phone-bills.xlsx
+++ b/office/excel/exercises/descriptive-statistics/phone-bills.xlsx
@@ -8,28 +8,148 @@
   </bookViews>
   <sheets>
     <sheet name="phone bills" sheetId="1" r:id="rId1"/>
+    <sheet name="Solution" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="bills">'phone bills'!$A$2:$A$201</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Bills</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Quartiles</t>
+  </si>
+  <si>
+    <t>Percentile 65</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Std.Deviation</t>
+  </si>
+  <si>
+    <t>Coef.Variation</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the amount that best represent the sample of bills. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the central value of the distribution. Half of the bills have amounts lower than or equal to this amount and the other half have amounts greater than or equal to it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the most common amount of bills, that is, the most frequent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25% of the bills have amounts lower than or equal to this amount. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% of the bills have amounts lower than or equal to this amount. It's the same as the median. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75% of the bills have amounts lower than or equal to this amount. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">65% of the bills have amounts lower than or equal to this amount. </t>
+  </si>
+  <si>
+    <t>Measures the spread with respect to the mean but it has square units and it's difficult to interpret.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <r>
+      <t>€</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Measures the average spread with respecto to the mean. Compared to the range of amounts of the bills in the sample, this value is quite high, so there is enough dispersion with respect to the mean. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This statistics also measures the spread with respect to the mean, but it has no units and it's easier to interpret. As this value is greater than 0.5 that means that there is quite dispersión with respect to the mean and therefore the mean is not very representative of the sample. </t>
+  </si>
+  <si>
+    <t>Coef.Skewness</t>
+  </si>
+  <si>
+    <t>Coef.Kurtosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the value is negative this means that the distribution is flatter than a bell curve. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As both, the Coef. of Skewness and the Coef. Of Kurtosis are between -2 and 2, that means that we can assume that the population of bills is normal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the value is positive the distribution is right-skewed. That means that there are a lot of bills with lower amounts and few bills with huge amounts. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -61,6 +181,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -76,7 +199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -364,11 +487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="256" width="9.140625" customWidth="1"/>
   </cols>
@@ -1383,4 +1504,223 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(bills)</f>
+        <v>43.587600000000009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>MEDIAN(bills)</f>
+        <v>26.905000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>MODE(bills)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>QUARTILE(bills,A6)</f>
+        <v>9.3849999999999998</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f>QUARTILE(bills,A7)</f>
+        <v>26.905000000000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f>QUARTILE(bills,A8)</f>
+        <v>84.827500000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f>PERCENTILE(bills,0.65)</f>
+        <v>58.720999999999954</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.VAR.P(bills)</f>
+        <v>1511.0450632399995</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>_xlfn.STDEV.P(bills)</f>
+        <v>38.872163089285365</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f>B11/ABS(B2)</f>
+        <v>0.89181700963772625</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <f>SKEW(bills)</f>
+        <v>0.54137354770612023</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <f>KURT(bills)</f>
+        <v>-1.2919067402644473</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C10" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>